--- a/biology/Histoire de la zoologie et de la botanique/Charles_Georges_Leroy/Charles_Georges_Leroy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Georges_Leroy/Charles_Georges_Leroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Georges Leroy, né  le 22 janvier 1723 et mort le 11 novembre 1789, est l’auteur d’un des premiers ouvrages sur le comportement animal.
-Il est lieutenant des chasses royales. Il est l’ami de Denis Diderot (1713-1784), de Jean le Rond d'Alembert (1717-1783) et de Claude-Adrien Helvétius (1715-1771). Il commence à faire paraître, sous forme de lettres et sous le pseudonyme du « physicien de Nuremberg », des textes sur le comportement et la sensibilité des animaux. La dernière version de ceux-ci parait dans l’Encyclopédie méthodique en 1793[1]. Le texte est réédité en 2006 et accompagné par une biographie de Leroy.
+Il est lieutenant des chasses royales. Il est l’ami de Denis Diderot (1713-1784), de Jean le Rond d'Alembert (1717-1783) et de Claude-Adrien Helvétius (1715-1771). Il commence à faire paraître, sous forme de lettres et sous le pseudonyme du « physicien de Nuremberg », des textes sur le comportement et la sensibilité des animaux. La dernière version de ceux-ci parait dans l’Encyclopédie méthodique en 1793. Le texte est réédité en 2006 et accompagné par une biographie de Leroy.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Charles Georges Leroy (1768). Lettres philosophiques sur l'intelligence et la perfectibilté des animaux, avec quelques lettres sur l'homme, The Alden Press, Oxford 1994.  (ISBN 0729404722)
 Réflexions sur la jalousie, pour servir de commentaire aux derniers ouvrages de M. de Voltaire (1772). Lire en ligne. Voltaire répondit par une Lettre sur un écrit anonyme. Lire en ligne.
